--- a/1-data/Ebselen_allplate_11.25.23.xlsx
+++ b/1-data/Ebselen_allplate_11.25.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/ebstein_mg/1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E954EC48-C1E5-7A41-AD44-EF954B702EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709111CB-08A7-9643-BD69-B6C8C5ECC3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="2340" windowWidth="10000" windowHeight="8980" firstSheet="2" activeTab="5" xr2:uid="{7BE2EF8C-4BE3-4251-AF4C-2FEAABDE3818}"/>
+    <workbookView xWindow="19400" yWindow="1200" windowWidth="22100" windowHeight="14960" activeTab="1" xr2:uid="{7BE2EF8C-4BE3-4251-AF4C-2FEAABDE3818}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2610,7 +2621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546A8022-DE5F-4AED-ADCB-0FBB0BECE7AD}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4233,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E40D4-20DA-49CA-9B50-264879B69B3B}">
   <dimension ref="A2:CU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
